--- a/metrics/tm.xlsx
+++ b/metrics/tm.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanda\Desktop\SE\SE\is203-2017_G1T3\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel Tay\Desktop\SMU\SEM 2.1\SE\SE Project\is203-2017_G1T3\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{DFC5EB72-3D95-4787-93D0-40B9C90E77C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{DFC5EB72-3D95-4787-93D0-40B9C90E77C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Metrics" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Iteration</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">As some of these tasks were still undone from iteration 2, we had moved these spillover tasks to the next iteration. We also rearranged some of the functionalities that we wanted to carry out in iteration 3 to iteration 5 instead. </t>
+  </si>
+  <si>
+    <t>Our estimates are fairly accurate, the team are roughly on track. There are a few unplanned tasks that were created along the way, hence spilling over some tasks to the next iteration. Buffer days are sufficient</t>
   </si>
 </sst>
 </file>
@@ -246,9 +249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>78328</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>134697</xdr:rowOff>
+      <xdr:colOff>78329</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>322982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -584,20 +587,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E7" sqref="E7:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -607,7 +610,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -648,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -669,22 +672,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>43018</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="e">
+      <c r="C5" s="5">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -699,7 +708,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -709,12 +718,12 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="e">
-        <f t="shared" ref="E7" si="1">D7/C7</f>
+        <f t="shared" ref="E7:E9" si="1">D7/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -723,10 +732,13 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -735,7 +747,10 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
   </sheetData>

--- a/metrics/tm.xlsx
+++ b/metrics/tm.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel Tay\Desktop\SMU\SEM 2.1\SE\SE Project\is203-2017_G1T3\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Google Drive\Uni life\Year 2\SE G1\is203-2017_G1T3\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{DFC5EB72-3D95-4787-93D0-40B9C90E77C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" xr2:uid="{DFC5EB72-3D95-4787-93D0-40B9C90E77C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Metrics" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Iteration</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Our estimates are fairly accurate, the team are roughly on track. There are a few unplanned tasks that were created along the way, hence spilling over some tasks to the next iteration. Buffer days are sufficient</t>
+  </si>
+  <si>
+    <t>Our estimates are fairly accurate, the team are roughly on track. There was just one unplanned task. No spillovers.</t>
   </si>
 </sst>
 </file>
@@ -587,20 +590,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E9"/>
+      <selection activeCell="J6" sqref="J6:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -610,7 +613,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -651,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -672,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -693,22 +696,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>43032</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="e">
+      <c r="C6" s="5">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.032258064516129</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -723,7 +732,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -738,7 +747,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>

--- a/metrics/tm.xlsx
+++ b/metrics/tm.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Iteration</t>
   </si>
@@ -590,15 +590,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J8"/>
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
@@ -717,35 +717,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>43046</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="e">
+      <c r="C7" s="5">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" ref="E7:E9" si="1">D7/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>43060</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="e">
+      <c r="C8" s="5">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">

--- a/metrics/tm.xlsx
+++ b/metrics/tm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Iteration</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Our estimates are fairly accurate, the team are roughly on track. There was just one unplanned task. No spillovers.</t>
+  </si>
+  <si>
+    <t>Our estimates are fairly accurate, the team are roughly on track. No unplanned tasks. No spillovers.</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC14BCD6-7C7A-4447-BE7A-1BD93D6D0760}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,11 +734,11 @@
         <v>29</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7:E9" si="1">D7/C7</f>
+        <f t="shared" ref="E7:E8" si="1">D7/C7</f>
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -746,33 +749,18 @@
         <v>43060</v>
       </c>
       <c r="C8" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>43061</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/metrics/tm.xlsx
+++ b/metrics/tm.xlsx
@@ -593,7 +593,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,10 +749,10 @@
         <v>43060</v>
       </c>
       <c r="C8" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
